--- a/data.xlsx
+++ b/data.xlsx
@@ -337,16 +337,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.72</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1657,16 +1657,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.72</c:v>
+                  <c:v>15.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4120,8 +4120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4174,7 +4174,7 @@
         <v>13</v>
       </c>
       <c r="C4" s="4">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>1.78</v>
@@ -4189,7 +4189,7 @@
         <v>16</v>
       </c>
       <c r="C5" s="4">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D5" s="5">
         <v>7.3</v>
@@ -4203,7 +4203,7 @@
         <v>19</v>
       </c>
       <c r="C6" s="4">
-        <v>22.72</v>
+        <v>15.6</v>
       </c>
       <c r="D6" s="5">
         <v>52.55</v>
@@ -4217,7 +4217,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D7" s="5">
         <v>500</v>
@@ -4373,7 +4373,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="4">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
         <v>1.4</v>
@@ -4387,7 +4387,7 @@
         <v>16</v>
       </c>
       <c r="C22" s="4">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="D22" s="5">
         <v>3.1</v>
@@ -4401,7 +4401,7 @@
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>22.72</v>
+        <v>15.6</v>
       </c>
       <c r="D23" s="5">
         <v>18.5</v>
@@ -4415,7 +4415,7 @@
         <v>22</v>
       </c>
       <c r="C24" s="4">
-        <v>166</v>
+        <v>111</v>
       </c>
       <c r="D24" s="5">
         <v>142</v>
